--- a/result1.xlsx
+++ b/result1.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidek\OneDrive\ドキュメント\GitHub\Tankyu\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCF4E8B-3591-4680-BD8A-A23B1AF76ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +61,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +338,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D2:D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/result1.xlsx
+++ b/result1.xlsx
@@ -1,45 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidek\OneDrive\ドキュメント\GitHub\Tankyu\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCF4E8B-3591-4680-BD8A-A23B1AF76ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <family val="3"/>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -58,21 +53,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -338,17 +392,451 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="D2:D87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2">
+      <c r="D2" t="n">
+        <v>0.9140625</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" t="n">
+        <v>0.857421875</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" t="n">
+        <v>0.796875</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" t="n">
+        <v>0.892578125</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" t="n">
+        <v>0.73046875</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" t="n">
+        <v>0.609375</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="n">
+        <v>0.53515625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="n">
+        <v>0.916015625</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="n">
+        <v>0.919921875</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" t="n">
+        <v>0.896484375</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" t="n">
+        <v>0.8828125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" t="n">
+        <v>0.755859375</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" t="n">
+        <v>0.650390625</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" t="n">
+        <v>0.357421875</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" t="n">
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" t="n">
+        <v>0.892578125</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" t="n">
+        <v>0.89453125</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" t="n">
+        <v>0.8984375</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" t="n">
+        <v>0.75390625</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" t="n">
+        <v>0.638671875</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" t="n">
+        <v>0.451171875</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" t="n">
+        <v>0.92578125</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" t="n">
+        <v>0.8984375</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="D25" t="n">
+        <v>0.85546875</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" t="n">
+        <v>0.880859375</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" t="n">
+        <v>0.884765625</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" t="n">
+        <v>0.81640625</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" t="n">
+        <v>0.5078125</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" t="n">
+        <v>0.529296875</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" t="n">
+        <v>0.818359375</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" t="n">
+        <v>0.802734375</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" t="n">
+        <v>0.779296875</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" t="n">
+        <v>0.71484375</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="D35" t="n">
+        <v>0.58203125</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="D36" t="n">
+        <v>0.583984375</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="D37" t="n">
+        <v>0.529296875</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="D38" t="n">
+        <v>0.896484375</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="D39" t="n">
+        <v>0.736328125</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="D40" t="n">
+        <v>0.61328125</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="D41" t="n">
+        <v>0.6015625</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="D42" t="n">
+        <v>0.537109375</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="D43" t="n">
+        <v>0.49609375</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="D44" t="n">
+        <v>0.48828125</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="D45" t="n">
+        <v>0.87890625</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="D46" t="n">
+        <v>0.814453125</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="D47" t="n">
+        <v>0.771484375</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="D48" t="n">
+        <v>0.701171875</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="D49" t="n">
+        <v>0.607421875</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="D50" t="n">
+        <v>0.52734375</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="D51" t="n">
+        <v>0.529296875</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="D52" t="n">
+        <v>0.900390625</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="D53" t="n">
+        <v>0.82421875</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="D54" t="n">
+        <v>0.759765625</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="D55" t="n">
+        <v>0.75390625</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="D56" t="n">
+        <v>0.634765625</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="D57" t="n">
+        <v>0.572265625</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="D58" t="n">
+        <v>0.5703125</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="D59" t="n">
+        <v>0.8828125</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="D60" t="n">
+        <v>0.912109375</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="D61" t="n">
+        <v>0.873046875</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="D62" t="n">
+        <v>0.904296875</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="D63" t="n">
+        <v>0.91015625</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="D64" t="n">
+        <v>0.91015625</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="D65" t="n">
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="D66" t="n">
+        <v>0.76953125</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="D67" t="n">
+        <v>0.931640625</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="D68" t="n">
+        <v>0.90234375</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="D69" t="n">
+        <v>0.908203125</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="D70" t="n">
+        <v>0.869140625</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="D71" t="n">
+        <v>0.89453125</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="D72" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="D73" t="n">
+        <v>0.8828125</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="D74" t="n">
+        <v>0.923828125</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="D75" t="n">
+        <v>0.923828125</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="D76" t="n">
+        <v>0.90234375</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="D77" t="n">
+        <v>0.904296875</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="D78" t="n">
+        <v>0.916015625</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="D79" t="n">
+        <v>0.880859375</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="D80" t="n">
+        <v>0.9140625</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="D81" t="n">
+        <v>0.90234375</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="D82" t="n">
+        <v>0.900390625</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="D83" t="n">
+        <v>0.912109375</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="D84" t="n">
+        <v>0.876953125</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="D85" t="n">
+        <v>0.912109375</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="D86" t="n">
+        <v>0.8828125</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="D87" t="n">
+        <v>0.896484375</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/result1.xlsx
+++ b/result1.xlsx
@@ -397,442 +397,132 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="D2:D87"/>
+  <dimension ref="D2:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D2:D7"/>
+      <selection activeCell="D3" sqref="D2:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2">
       <c r="D2" t="n">
-        <v>0.9140625</v>
+        <v>0.900390625</v>
       </c>
     </row>
     <row r="3">
       <c r="D3" t="n">
-        <v>0.857421875</v>
+        <v>0.86328125</v>
       </c>
     </row>
     <row r="4">
       <c r="D4" t="n">
-        <v>0.796875</v>
+        <v>0.884765625</v>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="n">
-        <v>0.892578125</v>
+        <v>0.810546875</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" t="n">
-        <v>0.73046875</v>
+        <v>0.86328125</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" t="n">
-        <v>0.609375</v>
+        <v>0.7109375</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" t="n">
-        <v>0.53515625</v>
+        <v>0.69921875</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" t="n">
-        <v>0.916015625</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="D10" t="n">
-        <v>0.919921875</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="D11" t="n">
-        <v>0.896484375</v>
+        <v>0.474609375</v>
       </c>
     </row>
     <row r="12">
       <c r="D12" t="n">
-        <v>0.8828125</v>
+        <v>0.900390625</v>
       </c>
     </row>
     <row r="13">
       <c r="D13" t="n">
-        <v>0.755859375</v>
+        <v>0.888671875</v>
       </c>
     </row>
     <row r="14">
       <c r="D14" t="n">
-        <v>0.650390625</v>
+        <v>0.841796875</v>
       </c>
     </row>
     <row r="15">
       <c r="D15" t="n">
-        <v>0.357421875</v>
+        <v>0.83984375</v>
       </c>
     </row>
     <row r="16">
       <c r="D16" t="n">
-        <v>0.90625</v>
+        <v>0.7421875</v>
       </c>
     </row>
     <row r="17">
       <c r="D17" t="n">
-        <v>0.892578125</v>
+        <v>0.654296875</v>
       </c>
     </row>
     <row r="18">
       <c r="D18" t="n">
-        <v>0.89453125</v>
+        <v>0.630859375</v>
       </c>
     </row>
     <row r="19">
       <c r="D19" t="n">
-        <v>0.8984375</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="D20" t="n">
-        <v>0.75390625</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="D21" t="n">
-        <v>0.638671875</v>
+        <v>0.6015625</v>
       </c>
     </row>
     <row r="22">
       <c r="D22" t="n">
-        <v>0.451171875</v>
+        <v>0.896484375</v>
       </c>
     </row>
     <row r="23">
       <c r="D23" t="n">
-        <v>0.92578125</v>
+        <v>0.892578125</v>
       </c>
     </row>
     <row r="24">
       <c r="D24" t="n">
-        <v>0.8984375</v>
+        <v>0.912109375</v>
       </c>
     </row>
     <row r="25">
       <c r="D25" t="n">
-        <v>0.85546875</v>
+        <v>0.916015625</v>
       </c>
     </row>
     <row r="26">
       <c r="D26" t="n">
-        <v>0.880859375</v>
+        <v>0.837890625</v>
       </c>
     </row>
     <row r="27">
       <c r="D27" t="n">
-        <v>0.884765625</v>
+        <v>0.888671875</v>
       </c>
     </row>
     <row r="28">
       <c r="D28" t="n">
-        <v>0.81640625</v>
+        <v>0.89453125</v>
       </c>
     </row>
     <row r="29">
       <c r="D29" t="n">
-        <v>0.5078125</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="D30" t="n">
-        <v>0.529296875</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="D31" t="n">
-        <v>0.818359375</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="D32" t="n">
-        <v>0.802734375</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="D33" t="n">
-        <v>0.779296875</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="D34" t="n">
-        <v>0.71484375</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="D35" t="n">
-        <v>0.58203125</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="D36" t="n">
-        <v>0.583984375</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="D37" t="n">
-        <v>0.529296875</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="D38" t="n">
-        <v>0.896484375</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="D39" t="n">
-        <v>0.736328125</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="D40" t="n">
-        <v>0.61328125</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="D41" t="n">
-        <v>0.6015625</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="D42" t="n">
-        <v>0.537109375</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="D43" t="n">
-        <v>0.49609375</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="D44" t="n">
-        <v>0.48828125</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="D45" t="n">
-        <v>0.87890625</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="D46" t="n">
-        <v>0.814453125</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="D47" t="n">
-        <v>0.771484375</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="D48" t="n">
-        <v>0.701171875</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="D49" t="n">
-        <v>0.607421875</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="D50" t="n">
-        <v>0.52734375</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="D51" t="n">
-        <v>0.529296875</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="D52" t="n">
-        <v>0.900390625</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="D53" t="n">
-        <v>0.82421875</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="D54" t="n">
-        <v>0.759765625</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="D55" t="n">
-        <v>0.75390625</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="D56" t="n">
-        <v>0.634765625</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="D57" t="n">
-        <v>0.572265625</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="D58" t="n">
-        <v>0.5703125</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="D59" t="n">
         <v>0.8828125</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="D60" t="n">
-        <v>0.912109375</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="D61" t="n">
-        <v>0.873046875</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="D62" t="n">
-        <v>0.904296875</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="D63" t="n">
-        <v>0.91015625</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="D64" t="n">
-        <v>0.91015625</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="D65" t="n">
-        <v>0.90625</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="D66" t="n">
-        <v>0.76953125</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="D67" t="n">
-        <v>0.931640625</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="D68" t="n">
-        <v>0.90234375</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="D69" t="n">
-        <v>0.908203125</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="D70" t="n">
-        <v>0.869140625</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="D71" t="n">
-        <v>0.89453125</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="D72" t="n">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="D73" t="n">
-        <v>0.8828125</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="D74" t="n">
-        <v>0.923828125</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="D75" t="n">
-        <v>0.923828125</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="D76" t="n">
-        <v>0.90234375</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="D77" t="n">
-        <v>0.904296875</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="D78" t="n">
-        <v>0.916015625</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="D79" t="n">
-        <v>0.880859375</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="D80" t="n">
-        <v>0.9140625</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="D81" t="n">
-        <v>0.90234375</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="D82" t="n">
-        <v>0.900390625</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="D83" t="n">
-        <v>0.912109375</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="D84" t="n">
-        <v>0.876953125</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="D85" t="n">
-        <v>0.912109375</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="D86" t="n">
-        <v>0.8828125</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="D87" t="n">
-        <v>0.896484375</v>
       </c>
     </row>
   </sheetData>

--- a/result1.xlsx
+++ b/result1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -397,136 +397,1504 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="D2:D29"/>
+  <dimension ref="D2:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D2:E26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <sheetData>
     <row r="2">
       <c r="D2" t="n">
-        <v>0.900390625</v>
+        <v>0.673828125</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.666015625</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.66015625</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.673828125</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.654296875</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.658203125</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.68359375</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.68359375</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.69921875</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.662109375</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.66015625</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.646484375</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.677734375</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.67578125</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.705078125</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.697265625</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.64453125</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.671875</v>
       </c>
     </row>
     <row r="3">
       <c r="D3" t="n">
-        <v>0.86328125</v>
+        <v>0.646484375</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.638671875</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.640625</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.693359375</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.66015625</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.666015625</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.6640625</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.673828125</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.64453125</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.630859375</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.654296875</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.6796875</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.701171875</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.712890625</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.638671875</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.6484375</v>
       </c>
     </row>
     <row r="4">
       <c r="D4" t="n">
-        <v>0.884765625</v>
+        <v>0.654296875</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6640625</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5859375</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6015625</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.646484375</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.63671875</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.642578125</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.650390625</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.646484375</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.66796875</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.630859375</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.623046875</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.638671875</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.611328125</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.650390625</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.626953125</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.6796875</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.615234375</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.658203125</v>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="n">
-        <v>0.810546875</v>
+        <v>0.59765625</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.60546875</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.640625</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.607421875</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.671875</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.580078125</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.609375</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5546875</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.6953125</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.611328125</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.671875</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.609375</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.623046875</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.646484375</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.619140625</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.6796875</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.62109375</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.64453125</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.60546875</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.6328125</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" t="n">
-        <v>0.86328125</v>
+        <v>0.490234375</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6171875</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.591796875</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.517578125</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.564453125</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.55859375</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.546875</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.498046875</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5703125</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.654296875</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.517578125</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.576171875</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.62109375</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.55859375</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.537109375</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.55078125</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.6640625</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.43359375</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.62890625</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" t="n">
-        <v>0.7109375</v>
+        <v>0.361328125</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.599609375</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.517578125</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.388671875</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.416015625</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.50390625</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.41796875</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3515625</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.54296875</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.529296875</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.498046875</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.546875</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.47265625</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.423828125</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.533203125</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.607421875</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.419921875</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.505859375</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" t="n">
-        <v>0.69921875</v>
+        <v>0.412109375</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.33203125</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.283203125</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.390625</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.310546875</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.365234375</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.283203125</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.16015625</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.333984375</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.326171875</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.47265625</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.3671875</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.37109375</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.3515625</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.41796875</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.296875</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.298828125</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.46484375</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.3828125</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" t="n">
-        <v>0.474609375</v>
+        <v>0.1328125</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.23828125</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.22265625</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.150390625</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.18359375</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.294921875</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.23046875</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.18359375</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.369140625</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.240234375</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.267578125</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.314453125</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.2578125</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.1171875</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.115234375</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.146484375</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.109375</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.14453125</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.140625</v>
       </c>
     </row>
     <row r="12">
       <c r="D12" t="n">
-        <v>0.900390625</v>
+        <v>0.673828125</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.666015625</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.66015625</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.673828125</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.654296875</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.658203125</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.68359375</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.68359375</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.69921875</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.662109375</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.66015625</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.646484375</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.677734375</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.67578125</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.705078125</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.697265625</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.64453125</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.671875</v>
       </c>
     </row>
     <row r="13">
       <c r="D13" t="n">
-        <v>0.888671875</v>
+        <v>0.564453125</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.63671875</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.568359375</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.615234375</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.638671875</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.58984375</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.609375</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.626953125</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.658203125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.62890625</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.677734375</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.595703125</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.6015625</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.607421875</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.623046875</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.62890625</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.642578125</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.65234375</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.607421875</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.615234375</v>
       </c>
     </row>
     <row r="14">
       <c r="D14" t="n">
-        <v>0.841796875</v>
+        <v>0.55078125</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.60546875</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.541015625</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.6171875</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.638671875</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.568359375</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.587890625</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.623046875</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.63671875</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.60546875</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.650390625</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.58984375</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.59765625</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.59765625</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.609375</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.650390625</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.58203125</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.630859375</v>
       </c>
     </row>
     <row r="15">
       <c r="D15" t="n">
-        <v>0.83984375</v>
+        <v>0.560546875</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6171875</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.49609375</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.642578125</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.646484375</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.59765625</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.59765625</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.634765625</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.609375</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.666015625</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.572265625</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.591796875</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.603515625</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.619140625</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.59765625</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.57421875</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.623046875</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.62109375</v>
       </c>
     </row>
     <row r="16">
       <c r="D16" t="n">
-        <v>0.7421875</v>
+        <v>0.546875</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.60546875</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.650390625</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.638671875</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5546875</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.58203125</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.615234375</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.619140625</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.57421875</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.681640625</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.548828125</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.572265625</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.578125</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.58984375</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.552734375</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.56640625</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.5625</v>
       </c>
     </row>
     <row r="17">
       <c r="D17" t="n">
-        <v>0.654296875</v>
+        <v>0.521484375</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.568359375</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.458984375</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.619140625</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.611328125</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5234375</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.60546875</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.619140625</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.607421875</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.501953125</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.65234375</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.560546875</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.6171875</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.591796875</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.521484375</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.587890625</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.55859375</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.556640625</v>
       </c>
     </row>
     <row r="18">
       <c r="D18" t="n">
-        <v>0.630859375</v>
+        <v>0.5234375</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.599609375</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.419921875</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.572265625</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.578125</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.498046875</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.583984375</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.583984375</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.568359375</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.59765625</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.529296875</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.548828125</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.568359375</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.60546875</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.533203125</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.4921875</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.578125</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.548828125</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.533203125</v>
       </c>
     </row>
     <row r="19">
       <c r="D19" t="n">
-        <v>0.6015625</v>
+        <v>0.474609375</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5703125</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.470703125</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.49609375</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.564453125</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.52734375</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5703125</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.541015625</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.494140625</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.60546875</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.548828125</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.603515625</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.4921875</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.447265625</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.583984375</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.4765625</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.498046875</v>
       </c>
     </row>
     <row r="22">
       <c r="D22" t="n">
-        <v>0.896484375</v>
+        <v>0.66015625</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.708984375</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.716796875</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.685546875</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.654296875</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.689453125</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.701171875</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.689453125</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.69921875</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.708984375</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.66015625</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.671875</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.67578125</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.712890625</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.697265625</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.6953125</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.689453125</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.6796875</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.67578125</v>
       </c>
     </row>
     <row r="23">
       <c r="D23" t="n">
-        <v>0.892578125</v>
+        <v>0.708984375</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.689453125</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.712890625</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.671875</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.697265625</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.685546875</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.65234375</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.716796875</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.712890625</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.70703125</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.708984375</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.677734375</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.662109375</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.681640625</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.708984375</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.7109375</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.669921875</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.65625</v>
       </c>
     </row>
     <row r="24">
       <c r="D24" t="n">
-        <v>0.912109375</v>
+        <v>0.6875</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.73046875</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.708984375</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.68359375</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.70703125</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.693359375</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.67578125</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.708984375</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.67578125</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.697265625</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.66796875</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.6640625</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.693359375</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.6484375</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.697265625</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.685546875</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.681640625</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.671875</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.70703125</v>
       </c>
     </row>
     <row r="25">
       <c r="D25" t="n">
-        <v>0.916015625</v>
+        <v>0.6875</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.73046875</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.669921875</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.689453125</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.734375</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.70703125</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.705078125</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.6796875</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.681640625</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.6484375</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.72265625</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.669921875</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.697265625</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.671875</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.693359375</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.669921875</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.6796875</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.693359375</v>
       </c>
     </row>
     <row r="26">
       <c r="D26" t="n">
-        <v>0.837890625</v>
+        <v>0.712890625</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.6953125</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.697265625</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.6796875</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.7109375</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.697265625</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.673828125</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.666015625</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.734375</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.697265625</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.681640625</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.677734375</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.68359375</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.6796875</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.705078125</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.73046875</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.646484375</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.705078125</v>
       </c>
     </row>
     <row r="27">
       <c r="D27" t="n">
-        <v>0.888671875</v>
+        <v>0.681640625</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.69140625</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.69140625</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.673828125</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.712890625</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.677734375</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.67578125</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.68359375</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.7109375</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.68359375</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.716796875</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.685546875</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.619140625</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.6796875</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.72265625</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.716796875</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.693359375</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.67578125</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.720703125</v>
       </c>
     </row>
     <row r="28">
       <c r="D28" t="n">
-        <v>0.89453125</v>
+        <v>0.720703125</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.720703125</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.705078125</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.693359375</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.712890625</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.69140625</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.68359375</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.705078125</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.689453125</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.69921875</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.697265625</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.677734375</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.685546875</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.638671875</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.724609375</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.685546875</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.708984375</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.705078125</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.66796875</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.705078125</v>
       </c>
     </row>
     <row r="29">
       <c r="D29" t="n">
-        <v>0.8828125</v>
+        <v>0.6328125</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.708984375</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.732421875</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.693359375</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.7421875</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.6953125</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.697265625</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.677734375</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.716796875</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.671875</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.712890625</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.685546875</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.689453125</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.64453125</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.720703125</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.705078125</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.69140625</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.697265625</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.673828125</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.666015625</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>
 </worksheet>
 </file>